--- a/biology/Zoologie/Coucal_de_Strickland/Coucal_de_Strickland.xlsx
+++ b/biology/Zoologie/Coucal_de_Strickland/Coucal_de_Strickland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centropus rectunguis
 Le Coucal de Strickland (Centropus rectunguis) est une espèce d'oiseau de la famille des Cuculidae. Son aire de répartition s'étend sur la Thaïlande, la Malaisie, le Brunéi et  l'Indonésie.
